--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/20/seed4/result_data_RandomForest.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.28570000000001</v>
+        <v>16.09250000000001</v>
       </c>
     </row>
     <row r="8">
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.9507</v>
+        <v>-21.9453</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -644,12 +644,12 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>18.28160000000003</v>
+        <v>18.17850000000003</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.28889999999999</v>
+        <v>-22.1329</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.81780000000001</v>
+        <v>16.84940000000001</v>
       </c>
     </row>
     <row r="15">
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.61229999999998</v>
+        <v>-21.61319999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.2445</v>
+        <v>-22.16740000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -763,12 +763,12 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.6448</v>
+        <v>16.6846</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.21369999999997</v>
+        <v>-21.16019999999997</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.00139999999996</v>
+        <v>-21.06639999999996</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -882,12 +882,12 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>15.99969999999999</v>
+        <v>15.99799999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.97859999999998</v>
+        <v>-22.02089999999998</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.52569999999999</v>
+        <v>16.56389999999999</v>
       </c>
     </row>
     <row r="28">
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.69909999999997</v>
+        <v>-20.65829999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.88860000000001</v>
+        <v>16.87030000000001</v>
       </c>
     </row>
     <row r="30">
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-21.20089999999998</v>
+        <v>-21.22259999999998</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-21.28749999999998</v>
+        <v>-21.35909999999999</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.72880000000002</v>
+        <v>16.72390000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.3993</v>
+        <v>16.3339</v>
       </c>
     </row>
     <row r="39">
@@ -1193,7 +1193,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.51419999999999</v>
+        <v>-21.49919999999999</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.53309999999999</v>
+        <v>16.5385</v>
       </c>
     </row>
     <row r="48">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.152</v>
+        <v>17.1923</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.00050000000001</v>
+        <v>17.18000000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.3156</v>
+        <v>-22.1202</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.4906</v>
+        <v>16.47250000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.37740000000001</v>
+        <v>-22.215</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.66329999999998</v>
+        <v>-21.68299999999996</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.37180000000004</v>
+        <v>17.22360000000002</v>
       </c>
     </row>
     <row r="70">
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>18.30880000000002</v>
+        <v>18.08540000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.77079999999998</v>
+        <v>-19.58519999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.36339999999999</v>
+        <v>16.45699999999999</v>
       </c>
     </row>
     <row r="77">
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.91379999999998</v>
+        <v>-19.89479999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1817,12 +1817,12 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.55709999999999</v>
+        <v>16.56920000000001</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.99140000000001</v>
+        <v>-21.98750000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.8942</v>
+        <v>-21.9311</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.52289999999999</v>
+        <v>16.62299999999999</v>
       </c>
     </row>
     <row r="84">
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.69139999999998</v>
+        <v>-20.67019999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2038,7 +2038,7 @@
         <v>-5.14</v>
       </c>
       <c r="E94" t="n">
-        <v>18.55950000000001</v>
+        <v>18.72570000000002</v>
       </c>
     </row>
     <row r="95">
@@ -2077,7 +2077,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.9456</v>
+        <v>-21.82010000000001</v>
       </c>
       <c r="B97" t="n">
         <v>5.08</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.4332</v>
+        <v>16.3321</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.8436</v>
+        <v>16.7873</v>
       </c>
     </row>
   </sheetData>
